--- a/BusBar-Qt/net/通讯协议/功能码表.xlsx
+++ b/BusBar-Qt/net/通讯协议/功能码表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="218">
   <si>
     <t xml:space="preserve">数据域定义</t>
   </si>
@@ -75,6 +75,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：工作状态</t>
     </r>
@@ -99,6 +100,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">正常、</t>
     </r>
@@ -118,6 +120,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不正常</t>
     </r>
@@ -139,6 +142,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">相参数</t>
     </r>
@@ -160,6 +164,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：相数量</t>
     </r>
@@ -181,6 +186,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当前值</t>
     </r>
@@ -205,6 +211,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">最小值</t>
     </r>
@@ -226,6 +233,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">最大值</t>
     </r>
@@ -247,6 +255,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">报警值</t>
     </r>
@@ -268,6 +277,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">正常、</t>
     </r>
@@ -287,6 +297,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">报警</t>
     </r>
@@ -308,6 +319,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界最小值</t>
     </r>
@@ -329,6 +341,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界最大值</t>
     </r>
@@ -350,6 +363,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界报警值</t>
     </r>
@@ -371,6 +385,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">功率</t>
     </r>
@@ -395,6 +410,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">电能</t>
     </r>
@@ -416,6 +432,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">功率因素</t>
     </r>
@@ -437,6 +454,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开关状态</t>
     </r>
@@ -458,6 +476,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">关，</t>
     </r>
@@ -477,6 +496,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开</t>
     </r>
@@ -499,26 +519,7 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">排</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">量</t>
+      <t xml:space="preserve">负载率</t>
     </r>
   </si>
   <si>
@@ -538,8 +539,9 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">电压频率</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">电流谐波</t>
     </r>
   </si>
   <si>
@@ -559,29 +561,9 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">：视在功率</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">谐波值</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">：电压谐波</t>
     </r>
   </si>
   <si>
@@ -601,6 +583,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">环境数据</t>
     </r>
@@ -622,6 +605,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">温度
 </t>
@@ -642,6 +626,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">湿度</t>
     </r>
@@ -663,6 +648,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界最大值</t>
     </r>
@@ -684,6 +670,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界最小值</t>
     </r>
@@ -707,6 +694,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">门禁</t>
     </r>
@@ -730,6 +718,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未启用，</t>
     </r>
@@ -751,6 +740,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">关闭，</t>
     </r>
@@ -772,6 +762,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">打开</t>
     </r>
@@ -795,6 +786,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">水禁</t>
     </r>
@@ -818,6 +810,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未启用，</t>
     </r>
@@ -839,6 +832,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">正常，</t>
     </r>
@@ -860,6 +854,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">报警</t>
     </r>
@@ -883,6 +878,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">烟雾</t>
     </r>
@@ -904,6 +900,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备信息</t>
     </r>
@@ -925,6 +922,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备类型</t>
     </r>
@@ -946,6 +944,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备名称</t>
     </r>
@@ -970,6 +969,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备工作模式</t>
     </r>
@@ -991,6 +991,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：主机模式、</t>
     </r>
@@ -1010,6 +1011,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：从机模式</t>
     </r>
@@ -1031,6 +1033,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设备型号</t>
     </r>
@@ -1054,6 +1057,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设备地址</t>
     </r>
@@ -1077,6 +1081,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">数据中心</t>
     </r>
@@ -1098,6 +1103,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模组</t>
     </r>
@@ -1132,6 +1138,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：模块（层号）</t>
     </r>
@@ -1155,6 +1162,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：机柜</t>
     </r>
@@ -1178,6 +1186,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：系统信息</t>
     </r>
@@ -1201,6 +1210,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：系统版本</t>
     </r>
@@ -1224,6 +1234,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：系统最后更新时间</t>
     </r>
@@ -1247,6 +1258,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：系统运行时间</t>
     </r>
@@ -1273,6 +1285,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1294,6 +1307,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -1317,6 +1331,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1338,6 +1353,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">温度</t>
     </r>
@@ -1361,6 +1377,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1382,6 +1399,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使用率</t>
     </r>
@@ -1405,6 +1423,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1426,6 +1445,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">名称</t>
     </r>
@@ -1449,6 +1469,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1470,6 +1491,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">频率</t>
     </r>
@@ -1493,6 +1515,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：内存名称</t>
     </r>
@@ -1516,6 +1539,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：内存频度</t>
     </r>
@@ -1539,6 +1563,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：内存大小</t>
     </r>
@@ -1560,6 +1585,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设备用户信息</t>
     </r>
@@ -1581,6 +1607,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户信息</t>
     </r>
@@ -1602,6 +1629,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户名、密码</t>
     </r>
@@ -1613,6 +1641,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">字符串以</t>
     </r>
@@ -1632,6 +1661,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分开 </t>
     </r>
@@ -1651,6 +1681,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分号加空格</t>
     </r>
@@ -1684,6 +1715,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户名、邮件</t>
     </r>
@@ -1696,6 +1728,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">要加</t>
     </r>
@@ -1717,6 +1750,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">号，表示第几个邮件</t>
     </r>
@@ -1740,6 +1774,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户名、手机</t>
     </r>
@@ -1763,6 +1798,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户名、所属组</t>
     </r>
@@ -1786,6 +1822,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：删除用户</t>
     </r>
@@ -1812,6 +1849,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：删除所有用户</t>
     </r>
@@ -1835,6 +1873,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：用户组</t>
     </r>
@@ -1861,6 +1900,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位权限</t>
     </r>
@@ -1882,6 +1922,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备网络信息</t>
     </r>
@@ -1903,6 +1944,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">地址
 </t>
@@ -1923,6 +1965,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网络</t>
     </r>
@@ -1954,6 +1997,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备</t>
     </r>
@@ -1985,6 +2029,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备网关</t>
     </r>
@@ -2006,6 +2051,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：子网掩码</t>
     </r>
@@ -2027,6 +2073,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2058,6 +2105,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2089,6 +2137,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2108,6 +2157,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模式</t>
     </r>
@@ -2129,6 +2179,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">静态、</t>
     </r>
@@ -2148,6 +2199,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">动态获取</t>
     </r>
@@ -2171,6 +2223,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2192,6 +2245,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2215,6 +2269,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：是否开启</t>
     </r>
@@ -2249,6 +2304,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开启、</t>
     </r>
@@ -2270,6 +2326,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止</t>
     </r>
@@ -2296,6 +2353,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">密码</t>
     </r>
@@ -2319,6 +2377,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2340,6 +2399,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2363,6 +2423,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">端口号</t>
     </r>
@@ -2386,6 +2447,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模式端口</t>
     </r>
@@ -2409,6 +2471,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">工作模式</t>
     </r>
@@ -2432,6 +2495,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能</t>
     </r>
@@ -2453,6 +2517,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">加密、</t>
     </r>
@@ -2474,6 +2539,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止</t>
     </r>
@@ -2497,6 +2563,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2518,6 +2585,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2541,6 +2609,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：使能</t>
     </r>
@@ -2564,6 +2633,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能、</t>
     </r>
@@ -2585,6 +2655,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止</t>
     </r>
@@ -2608,6 +2679,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：用户名</t>
     </r>
@@ -2631,6 +2703,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：密码</t>
     </r>
@@ -2654,6 +2727,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：端口号</t>
     </r>
@@ -2677,6 +2751,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2698,6 +2773,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2721,6 +2797,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2744,6 +2821,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：地址</t>
     </r>
@@ -2767,6 +2845,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：波特率</t>
     </r>
@@ -2790,6 +2869,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：数据位</t>
     </r>
@@ -2813,6 +2893,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：奇偶校验位</t>
     </r>
@@ -2836,6 +2917,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：停止位</t>
     </r>
@@ -2857,6 +2939,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2878,6 +2961,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：使能</t>
     </r>
@@ -2899,6 +2983,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能、</t>
     </r>
@@ -2918,6 +3003,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止</t>
     </r>
@@ -2939,6 +3025,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2958,6 +3045,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">共同体</t>
     </r>
@@ -2979,6 +3067,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2998,6 +3087,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">共同体</t>
     </r>
@@ -3025,6 +3115,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务器位置</t>
     </r>
@@ -3046,6 +3137,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">节点</t>
     </r>
@@ -3067,6 +3159,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能</t>
     </r>
@@ -3088,6 +3181,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：账号</t>
     </r>
@@ -3109,6 +3203,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：密码</t>
     </r>
@@ -3130,6 +3225,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：密钥</t>
     </r>
@@ -3153,6 +3249,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3187,6 +3284,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能</t>
     </r>
@@ -3210,6 +3308,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、用户名</t>
     </r>
@@ -3234,6 +3333,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：用户</t>
     </r>
@@ -3255,6 +3355,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：密码</t>
     </r>
@@ -3276,6 +3377,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3295,6 +3397,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务器</t>
     </r>
@@ -3316,6 +3419,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：端口号</t>
     </r>
@@ -3337,6 +3441,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">认证方式</t>
     </r>
@@ -3358,6 +3463,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">测试接收账号</t>
     </r>
@@ -3381,6 +3487,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3415,6 +3522,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3436,6 +3544,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务器</t>
     </r>
@@ -3459,6 +3568,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：端口号</t>
     </r>
@@ -3482,6 +3592,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：时区</t>
     </r>
@@ -3505,6 +3616,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3539,6 +3651,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">基本设置</t>
     </r>
@@ -3562,6 +3675,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">认证</t>
     </r>
@@ -3585,6 +3699,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务器无响应时启用本地认证</t>
     </r>
@@ -3608,6 +3723,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">认证服务器</t>
     </r>
@@ -3631,6 +3747,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">公钥</t>
     </r>
@@ -3654,6 +3771,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">认证端口</t>
     </r>
@@ -3677,6 +3795,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">账号端口</t>
     </r>
@@ -3700,6 +3819,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备管理信息</t>
     </r>
@@ -3723,6 +3843,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：配置信息</t>
     </r>
@@ -3746,6 +3867,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：延时开关</t>
     </r>
@@ -3769,6 +3891,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开、</t>
     </r>
@@ -3790,6 +3913,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">关</t>
     </r>
@@ -3813,6 +3937,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：延时时间</t>
     </r>
@@ -3836,6 +3961,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：蜂鸣器开关</t>
     </r>
@@ -3859,6 +3985,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：分组开关</t>
     </r>
@@ -3882,6 +4009,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3903,6 +4031,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">常高模式</t>
     </r>
@@ -3926,6 +4055,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备图表信息</t>
     </r>
@@ -3949,6 +4079,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：功率</t>
     </r>
@@ -3972,6 +4103,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：电流</t>
     </r>
@@ -3995,6 +4127,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：电压</t>
     </r>
@@ -4018,6 +4151,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：温度</t>
     </r>
@@ -4030,6 +4164,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">传感器号（</t>
     </r>
@@ -4051,6 +4186,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到</t>
     </r>
@@ -4072,6 +4208,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -4095,6 +4232,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：湿度</t>
     </r>
@@ -4116,6 +4254,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">输出位名称</t>
     </r>
@@ -4143,6 +4282,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">接收时注意：</t>
     </r>
@@ -4176,6 +4316,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位分组信息</t>
     </r>
@@ -4188,6 +4329,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组名称 </t>
     </r>
@@ -4209,6 +4351,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分组信息变化 </t>
     </r>
@@ -4232,6 +4375,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">输出位超限断电</t>
     </r>
@@ -4255,6 +4399,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开启、</t>
     </r>
@@ -4276,6 +4421,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止  </t>
     </r>
@@ -4297,6 +4443,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示分组变化</t>
     </r>
@@ -4320,6 +4467,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位开关控制</t>
     </r>
@@ -4343,6 +4491,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开启、</t>
     </r>
@@ -4364,6 +4513,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止 </t>
     </r>
@@ -4385,6 +4535,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分组信息变化</t>
     </r>
@@ -4408,6 +4559,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位上下电时间</t>
     </r>
@@ -4420,6 +4572,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">时间，上电、下电时间 </t>
     </r>
@@ -4441,6 +4594,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分组信息变化</t>
     </r>
@@ -4464,6 +4618,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位排序</t>
     </r>
@@ -4490,6 +4645,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：超限断电组控制</t>
     </r>
@@ -4516,6 +4672,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：开关控制组控制</t>
     </r>
@@ -4539,6 +4696,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位开关全开、全断</t>
     </r>
@@ -4551,6 +4709,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组名</t>
     </r>
@@ -4572,6 +4731,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">结尾，后面是时间</t>
     </r>
@@ -4595,6 +4755,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：定时上下电组管理</t>
     </r>
@@ -4607,6 +4768,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组名与时间间隔符</t>
     </r>
@@ -4628,6 +4790,7 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分号加空格</t>
     </r>
@@ -4660,6 +4823,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系统维护命令</t>
     </r>
@@ -4681,6 +4845,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：时间同步</t>
     </r>
@@ -4692,6 +4857,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -4711,6 +4877,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -4730,6 +4897,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日 时</t>
     </r>
@@ -4749,6 +4917,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分</t>
     </r>
@@ -4768,6 +4937,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">秒</t>
     </r>
@@ -4789,6 +4959,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：恢复出厂设置</t>
     </r>
@@ -4810,6 +4981,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：重启设备</t>
     </r>
@@ -4831,6 +5003,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">额定电流</t>
     </r>
@@ -4852,6 +5025,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：接插箱数量</t>
     </r>
@@ -4876,6 +5050,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -4907,6 +5082,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -4938,6 +5114,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -4969,6 +5146,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -5000,6 +5178,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位电流</t>
     </r>
@@ -5021,6 +5200,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：统一设置</t>
     </r>
@@ -5042,6 +5222,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">字节</t>
     </r>
@@ -5059,6 +5240,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">备注：</t>
     </r>
@@ -5078,6 +5260,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">字节表示一个数据。值扩大</t>
     </r>
@@ -5097,6 +5280,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">倍</t>
     </r>
@@ -5118,6 +5302,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：回路电流</t>
     </r>
@@ -5139,6 +5324,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输入相电压</t>
     </r>
@@ -5160,6 +5346,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设置第</t>
     </r>
@@ -5179,6 +5366,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位阈值</t>
     </r>
@@ -5200,6 +5388,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输入相电流</t>
     </r>
@@ -5221,6 +5410,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设置第</t>
     </r>
@@ -5240,6 +5430,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位阈值</t>
     </r>
@@ -5261,6 +5452,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">字节</t>
     </r>
@@ -5288,6 +5480,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：温度</t>
     </r>
@@ -5309,6 +5502,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设置第</t>
     </r>
@@ -5328,6 +5522,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位阈值</t>
     </r>
@@ -5349,6 +5544,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：湿度</t>
     </r>
@@ -5370,6 +5566,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设置第</t>
     </r>
@@ -5389,6 +5586,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位阈值</t>
     </r>
@@ -5410,6 +5608,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：开关</t>
     </r>
@@ -5431,6 +5630,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">个字节</t>
     </r>
@@ -5452,6 +5652,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为关，</t>
     </r>
@@ -5471,6 +5672,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为开</t>
     </r>
@@ -5485,12 +5687,13 @@
     <numFmt numFmtId="165" formatCode="H:MM"/>
     <numFmt numFmtId="166" formatCode="YYYY\-M\-D\ H:MM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5512,6 +5715,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5519,6 +5723,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -5534,6 +5744,7 @@
       <color rgb="FF7F7F7F"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -5548,6 +5759,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5647,11 +5859,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5724,16 +5936,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -5744,39 +5956,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5784,11 +5996,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5808,10 +6020,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5824,7 +6032,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5856,20 +6064,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5950,22 +6146,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="8.61395348837209"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.2418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.3953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="6.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6078,12 +6274,12 @@
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="5"/>
@@ -6094,12 +6290,12 @@
       <c r="G8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="5"/>
@@ -6110,12 +6306,12 @@
       <c r="G9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5"/>
@@ -6126,12 +6322,12 @@
       <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5"/>
@@ -6140,14 +6336,14 @@
         <v>1</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="5"/>
@@ -6158,12 +6354,12 @@
       <c r="G12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="5"/>
@@ -6174,12 +6370,12 @@
       <c r="G13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="5"/>
@@ -6188,26 +6384,26 @@
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="n">
@@ -6216,14 +6412,14 @@
       <c r="G16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="n">
@@ -6232,14 +6428,14 @@
       <c r="G17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="n">
@@ -6248,78 +6444,76 @@
       <c r="G18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="13"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="13"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="20" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="B23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="n">
@@ -6328,17 +6522,13 @@
       <c r="G23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>17</v>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -6348,13 +6538,13 @@
       <c r="G24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="19" t="s">
-        <v>19</v>
+      <c r="C25" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6364,44 +6554,44 @@
       <c r="G25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="19" t="s">
-        <v>20</v>
+      <c r="C26" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
-      <c r="C27" s="19" t="s">
-        <v>21</v>
+      <c r="C27" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="19" t="s">
-        <v>22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="5"/>
@@ -6412,44 +6602,44 @@
       <c r="G28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="19" t="s">
-        <v>39</v>
+      <c r="C29" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="n">
+      <c r="B30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="19" t="s">
-        <v>22</v>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21"/>
       <c r="B31" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="25"/>
@@ -6458,14 +6648,14 @@
         <v>1</v>
       </c>
       <c r="G31" s="25"/>
-      <c r="H31" s="26" t="s">
-        <v>41</v>
+      <c r="H31" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21"/>
       <c r="B32" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -6474,209 +6664,207 @@
         <v>1</v>
       </c>
       <c r="G32" s="25"/>
-      <c r="H32" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="n">
+      <c r="B33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="10" t="s">
-        <v>48</v>
+      <c r="H34" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="C35" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="17" t="s">
-        <v>50</v>
+      <c r="H35" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="10" t="s">
-        <v>48</v>
+      <c r="C36" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21"/>
-      <c r="B37" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="C39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21"/>
-      <c r="B40" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="28" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G41" s="25"/>
       <c r="H41" s="27" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="B42" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="25"/>
       <c r="F42" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="27" t="s">
-        <v>60</v>
-      </c>
+      <c r="G42" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21"/>
-      <c r="B43" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="25"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G43" s="25"/>
       <c r="H43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="23"/>
+      <c r="H44" s="27" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21"/>
       <c r="B45" s="23"/>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G45" s="25"/>
-      <c r="H45" s="27" t="s">
-        <v>48</v>
-      </c>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21"/>
@@ -6686,11 +6874,11 @@
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
-      <c r="F46" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="23"/>
+      <c r="H46" s="27" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21"/>
@@ -6700,11 +6888,11 @@
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
-      <c r="F47" s="25"/>
+      <c r="F47" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G47" s="25"/>
-      <c r="H47" s="27" t="s">
-        <v>48</v>
-      </c>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21"/>
@@ -6721,50 +6909,48 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="28" t="s">
+      <c r="A49" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="23"/>
+      <c r="B49" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="10" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="26" t="s">
         <v>72</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21"/>
       <c r="B51" s="17"/>
       <c r="C51" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="27" t="s">
-        <v>74</v>
-      </c>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21"/>
@@ -6788,38 +6974,40 @@
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="23"/>
+      <c r="H53" s="27" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21"/>
       <c r="B54" s="17"/>
       <c r="C54" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="27" t="s">
-        <v>78</v>
-      </c>
+      <c r="H54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="26" t="s">
+      <c r="B55" s="23" t="s">
         <v>79</v>
       </c>
+      <c r="C55" s="24"/>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="23"/>
+      <c r="H55" s="27" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21"/>
       <c r="B56" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="25"/>
@@ -6827,31 +7015,29 @@
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21"/>
-      <c r="B57" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21" t="s">
+      <c r="B57" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="C57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="21"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D58" s="5"/>
@@ -6863,7 +7049,7 @@
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21"/>
       <c r="B59" s="32"/>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D59" s="5"/>
@@ -6875,7 +7061,7 @@
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21"/>
       <c r="B60" s="32"/>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D60" s="5"/>
@@ -6887,7 +7073,7 @@
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21"/>
       <c r="B61" s="32"/>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="5"/>
@@ -6899,48 +7085,48 @@
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21"/>
       <c r="B62" s="32"/>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="D62" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="17"/>
+      <c r="H62" s="17" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="5" t="n">
+      <c r="B63" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="17" t="s">
-        <v>91</v>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21"/>
-      <c r="B64" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="B64" s="23"/>
       <c r="C64" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="25" t="n">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
-      <c r="H64" s="23" t="s">
-        <v>94</v>
-      </c>
+      <c r="H64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21"/>
@@ -6956,21 +7142,25 @@
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="C66" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="D66" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
+      <c r="F66" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G66" s="25"/>
       <c r="H66" s="23"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21"/>
-      <c r="B67" s="23" t="s">
-        <v>97</v>
-      </c>
+      <c r="B67" s="23"/>
       <c r="C67" s="26" t="s">
         <v>98</v>
       </c>
@@ -6991,20 +7181,22 @@
         <v>99</v>
       </c>
       <c r="D68" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="25"/>
-      <c r="F68" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F68" s="25"/>
       <c r="G68" s="25"/>
-      <c r="H68" s="23"/>
+      <c r="H68" s="23" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="C69" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D69" s="25" t="n">
         <v>1</v>
@@ -7013,26 +7205,20 @@
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21"/>
-      <c r="B70" s="23" t="s">
-        <v>102</v>
-      </c>
+      <c r="B70" s="23"/>
       <c r="C70" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="25" t="n">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D70" s="25"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
-      <c r="H70" s="23" t="s">
-        <v>104</v>
-      </c>
+      <c r="H70" s="23"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21"/>
@@ -7052,45 +7238,45 @@
       <c r="C72" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="25"/>
+      <c r="D72" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
+      <c r="F72" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G72" s="25"/>
       <c r="H72" s="23"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21"/>
-      <c r="B73" s="23"/>
+      <c r="B73" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="C73" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D73" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="25"/>
-      <c r="F73" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F73" s="25"/>
       <c r="G73" s="25"/>
-      <c r="H73" s="23"/>
+      <c r="H73" s="23" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21"/>
-      <c r="B74" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="B74" s="23"/>
       <c r="C74" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" s="25" t="n">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
-      <c r="H74" s="23" t="s">
-        <v>94</v>
-      </c>
+      <c r="H74" s="23"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21"/>
@@ -7110,41 +7296,45 @@
       <c r="C76" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="25"/>
+      <c r="D76" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
+      <c r="F76" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G76" s="25"/>
       <c r="H76" s="23"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21"/>
-      <c r="B77" s="23"/>
+      <c r="B77" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="C77" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D77" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="25"/>
-      <c r="F77" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="23"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21"/>
-      <c r="B78" s="23" t="s">
-        <v>109</v>
-      </c>
+      <c r="B78" s="23"/>
       <c r="C78" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D78" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
+      <c r="F78" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G78" s="25"/>
       <c r="H78" s="23"/>
     </row>
@@ -7155,12 +7345,10 @@
         <v>111</v>
       </c>
       <c r="D79" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="25"/>
-      <c r="F79" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F79" s="25"/>
       <c r="G79" s="25"/>
       <c r="H79" s="23"/>
     </row>
@@ -7194,40 +7382,38 @@
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="26" t="s">
+      <c r="B82" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="25" t="n">
+      <c r="C82" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="23"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="17" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21"/>
-      <c r="B83" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="17" t="s">
-        <v>117</v>
-      </c>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21"/>
       <c r="B84" s="17"/>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="20" t="s">
         <v>118</v>
       </c>
       <c r="D84" s="5"/>
@@ -7239,7 +7425,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21"/>
       <c r="B85" s="17"/>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="20" t="s">
         <v>119</v>
       </c>
       <c r="D85" s="5"/>
@@ -7251,7 +7437,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21"/>
       <c r="B86" s="17"/>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="20" t="s">
         <v>120</v>
       </c>
       <c r="D86" s="5"/>
@@ -7263,7 +7449,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21"/>
       <c r="B87" s="17"/>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="20" t="s">
         <v>121</v>
       </c>
       <c r="D87" s="5"/>
@@ -7275,7 +7461,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21"/>
       <c r="B88" s="17"/>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="20" t="s">
         <v>122</v>
       </c>
       <c r="D88" s="5"/>
@@ -7287,35 +7473,35 @@
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21"/>
       <c r="B89" s="17"/>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="17"/>
+      <c r="H89" s="17" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21"/>
       <c r="B90" s="17"/>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="17" t="s">
-        <v>117</v>
-      </c>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21"/>
       <c r="B91" s="17"/>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="20" t="s">
         <v>125</v>
       </c>
       <c r="D91" s="5"/>
@@ -7327,7 +7513,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21"/>
       <c r="B92" s="17"/>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D92" s="5"/>
@@ -7338,27 +7524,27 @@
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="19" t="s">
+      <c r="B93" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="17"/>
+      <c r="C93" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="23"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21"/>
-      <c r="B94" s="23" t="s">
-        <v>128</v>
-      </c>
+      <c r="B94" s="23"/>
       <c r="C94" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D94" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D94" s="25"/>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
@@ -7367,11 +7553,11 @@
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21"/>
       <c r="B95" s="23"/>
-      <c r="C95" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
+      <c r="C95" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
       <c r="H95" s="23"/>
@@ -7379,37 +7565,37 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21"/>
       <c r="B96" s="23"/>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="25"/>
+      <c r="D96" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G96" s="25"/>
       <c r="H96" s="23"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D97" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G97" s="25"/>
-      <c r="H97" s="23"/>
+      <c r="B97" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21"/>
-      <c r="B98" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="19" t="s">
+      <c r="B98" s="17"/>
+      <c r="C98" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D98" s="5"/>
@@ -7421,7 +7607,7 @@
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21"/>
       <c r="B99" s="17"/>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="20" t="s">
         <v>133</v>
       </c>
       <c r="D99" s="5"/>
@@ -7433,35 +7619,35 @@
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21"/>
       <c r="B100" s="17"/>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
+      <c r="F100" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="G100" s="5"/>
       <c r="H100" s="17"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21"/>
       <c r="B101" s="17"/>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D101" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="17"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21"/>
       <c r="B102" s="17"/>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="20" t="s">
         <v>136</v>
       </c>
       <c r="D102" s="5"/>
@@ -7472,23 +7658,23 @@
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="19" t="s">
+      <c r="B103" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="17"/>
+      <c r="C103" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="23"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21"/>
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="33"/>
+      <c r="C104" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
@@ -7502,9 +7688,13 @@
       <c r="C105" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="25"/>
+      <c r="D105" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
+      <c r="F105" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G105" s="25"/>
       <c r="H105" s="23"/>
     </row>
@@ -7514,33 +7704,33 @@
       <c r="C106" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D106" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D106" s="25"/>
       <c r="E106" s="25"/>
-      <c r="F106" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F106" s="25"/>
       <c r="G106" s="25"/>
       <c r="H106" s="23"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21"/>
-      <c r="B107" s="33"/>
+      <c r="B107" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="C107" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D107" s="25"/>
+        <v>142</v>
+      </c>
+      <c r="D107" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
-      <c r="H107" s="23"/>
+      <c r="H107" s="23" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21"/>
-      <c r="B108" s="23" t="s">
-        <v>142</v>
-      </c>
+      <c r="B108" s="23"/>
       <c r="C108" s="26" t="s">
         <v>143</v>
       </c>
@@ -7551,7 +7741,7 @@
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
       <c r="H108" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,14 +7750,12 @@
       <c r="C109" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D109" s="25"/>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
       <c r="H109" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7580,9 +7768,7 @@
       <c r="E110" s="25"/>
       <c r="F110" s="25"/>
       <c r="G110" s="25"/>
-      <c r="H110" s="23" t="s">
-        <v>104</v>
-      </c>
+      <c r="H110" s="23"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21"/>
@@ -7602,9 +7788,13 @@
       <c r="C112" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D112" s="25"/>
+      <c r="D112" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
+      <c r="F112" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G112" s="25"/>
       <c r="H112" s="23"/>
     </row>
@@ -7625,40 +7815,40 @@
       <c r="H113" s="23"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="21"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="C114" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D114" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="34"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25" t="n">
+      <c r="E115" s="25"/>
+      <c r="F115" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="G114" s="25"/>
-      <c r="H114" s="23"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
       <c r="G115" s="25"/>
-      <c r="H115" s="23" t="s">
-        <v>153</v>
-      </c>
+      <c r="H115" s="23"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="34"/>
@@ -7667,14 +7857,14 @@
         <v>154</v>
       </c>
       <c r="D116" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" s="25"/>
-      <c r="F116" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F116" s="25"/>
       <c r="G116" s="25"/>
-      <c r="H116" s="23"/>
+      <c r="H116" s="23" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="34"/>
@@ -7689,7 +7879,7 @@
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
       <c r="H117" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,29 +7895,27 @@
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
       <c r="H118" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="34"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="26" t="s">
+      <c r="A119" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D119" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="B119" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
       <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
+      <c r="F119" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G119" s="25"/>
-      <c r="H119" s="23" t="s">
-        <v>153</v>
-      </c>
+      <c r="H119" s="23"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="34" t="s">
-        <v>158</v>
-      </c>
+      <c r="A120" s="34"/>
       <c r="B120" s="23" t="s">
         <v>159</v>
       </c>
@@ -7759,7 +7947,9 @@
       <c r="B122" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C122" s="24"/>
+      <c r="C122" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="D122" s="25"/>
       <c r="E122" s="25"/>
       <c r="F122" s="25" t="n">
@@ -7771,10 +7961,10 @@
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="34"/>
       <c r="B123" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
@@ -7785,74 +7975,78 @@
       <c r="H123" s="23"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="34"/>
-      <c r="B124" s="23" t="s">
+      <c r="A124" s="14"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="17"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C124" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G124" s="25"/>
-      <c r="H124" s="23"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="14"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36"/>
+      <c r="B125" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="17"/>
+      <c r="G125" s="0"/>
+      <c r="H125" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I125" s="38" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="0"/>
-      <c r="H126" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="I126" s="38" t="s">
-        <v>168</v>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="24" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B127" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C127" s="39"/>
-      <c r="D127" s="25"/>
+      <c r="A127" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
+      <c r="F127" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="G127" s="25"/>
-      <c r="H127" s="24" t="s">
-        <v>170</v>
+      <c r="H127" s="26" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B128" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C128" s="39"/>
+        <v>172</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C128" s="25"/>
       <c r="D128" s="25" t="n">
         <v>1</v>
       </c>
@@ -7862,69 +8056,65 @@
       </c>
       <c r="G128" s="25"/>
       <c r="H128" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B129" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C129" s="39"/>
-      <c r="D129" s="25" t="n">
-        <v>1</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
       <c r="E129" s="25"/>
-      <c r="F129" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="F129" s="25"/>
       <c r="G129" s="25"/>
-      <c r="H129" s="26" t="s">
-        <v>174</v>
+      <c r="H129" s="24" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B130" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C130" s="39"/>
-      <c r="D130" s="25"/>
+        <v>176</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="E130" s="25"/>
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
       <c r="H130" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B131" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C131" s="39"/>
-      <c r="D131" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="A131" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131" s="30"/>
+      <c r="D131" s="25"/>
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
       <c r="G131" s="25"/>
       <c r="H131" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="33" t="s">
-        <v>179</v>
+      <c r="A132" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C132" s="30"/>
       <c r="D132" s="25"/>
@@ -7932,7 +8122,7 @@
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
       <c r="H132" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7940,7 +8130,7 @@
         <v>181</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C133" s="30"/>
       <c r="D133" s="25"/>
@@ -7948,66 +8138,66 @@
       <c r="F133" s="25"/>
       <c r="G133" s="25"/>
       <c r="H133" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C134" s="30"/>
+        <v>183</v>
+      </c>
+      <c r="B134" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" s="34"/>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
       <c r="H134" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B135" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C135" s="34"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="24" t="s">
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="17" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="40"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="40"/>
-      <c r="F136" s="40"/>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
+      <c r="B136" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C136" s="17"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="40" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="17" t="s">
-        <v>186</v>
-      </c>
+      <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C137" s="17"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
+      <c r="D137" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
-      <c r="H137" s="41" t="s">
-        <v>188</v>
-      </c>
+      <c r="H137" s="20"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
@@ -8023,32 +8213,19 @@
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="19"/>
+      <c r="H138" s="20"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17" t="s">
+      <c r="A139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C139" s="17"/>
-      <c r="D139" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="19"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="42" t="s">
+      <c r="A141" s="41" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="42" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -8062,33 +8239,34 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A7:A23"/>
+    <mergeCell ref="A7:A22"/>
     <mergeCell ref="B8:B15"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="A58:A114"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A57:A113"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B125:C125"/>
     <mergeCell ref="B126:C126"/>
     <mergeCell ref="B127:C127"/>
     <mergeCell ref="B128:C128"/>
@@ -8098,12 +8276,11 @@
     <mergeCell ref="B132:C132"/>
     <mergeCell ref="B133:C133"/>
     <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="A136:H136"/>
-    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="B136:C136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8128,27 +8305,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" s="44" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" s="43" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -8167,97 +8344,97 @@
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="C4" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="48"/>
+        <v>203</v>
+      </c>
+      <c r="B5" s="47"/>
       <c r="C5" s="21"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>205</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>206</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="C7" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="9" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="50" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>213</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -8266,11 +8443,11 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>214</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>215</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -8279,15 +8456,15 @@
       <c r="G9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>218</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>

--- a/BusBar-Qt/net/通讯协议/功能码表.xlsx
+++ b/BusBar-Qt/net/通讯协议/功能码表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="219">
   <si>
     <t xml:space="preserve">数据域定义</t>
   </si>
@@ -75,7 +75,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：工作状态</t>
     </r>
@@ -100,7 +99,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">正常、</t>
     </r>
@@ -120,7 +118,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不正常</t>
     </r>
@@ -142,7 +139,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">相参数</t>
     </r>
@@ -164,7 +160,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：相数量</t>
     </r>
@@ -186,7 +181,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当前值</t>
     </r>
@@ -211,7 +205,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">最小值</t>
     </r>
@@ -233,7 +226,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">最大值</t>
     </r>
@@ -255,7 +247,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">报警值</t>
     </r>
@@ -277,7 +268,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">正常、</t>
     </r>
@@ -297,7 +287,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">报警</t>
     </r>
@@ -319,7 +308,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界最小值</t>
     </r>
@@ -341,7 +329,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界最大值</t>
     </r>
@@ -363,7 +350,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界报警值</t>
     </r>
@@ -385,7 +371,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">功率</t>
     </r>
@@ -410,7 +395,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">电能</t>
     </r>
@@ -432,7 +416,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">功率因素</t>
     </r>
@@ -454,7 +437,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开关状态</t>
     </r>
@@ -476,7 +458,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">关，</t>
     </r>
@@ -496,7 +477,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开</t>
     </r>
@@ -519,7 +499,26 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">负载率</t>
+      <t xml:space="preserve">排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">量</t>
     </r>
   </si>
   <si>
@@ -539,9 +538,8 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">电流谐波</t>
+      </rPr>
+      <t xml:space="preserve">电压频率</t>
     </r>
   </si>
   <si>
@@ -561,9 +559,29 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">：电压谐波</t>
+      </rPr>
+      <t xml:space="preserve">：视在功率</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">谐波值</t>
     </r>
   </si>
   <si>
@@ -583,7 +601,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">环境数据</t>
     </r>
@@ -605,7 +622,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">温度
 </t>
@@ -626,7 +642,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">湿度</t>
     </r>
@@ -648,7 +663,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界最大值</t>
     </r>
@@ -670,7 +684,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">临界最小值</t>
     </r>
@@ -694,7 +707,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">门禁</t>
     </r>
@@ -718,7 +730,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未启用，</t>
     </r>
@@ -740,7 +751,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">关闭，</t>
     </r>
@@ -762,7 +772,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">打开</t>
     </r>
@@ -786,7 +795,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">水禁</t>
     </r>
@@ -810,7 +818,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未启用，</t>
     </r>
@@ -832,7 +839,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">正常，</t>
     </r>
@@ -854,7 +860,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">报警</t>
     </r>
@@ -878,7 +883,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">烟雾</t>
     </r>
@@ -900,7 +904,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备信息</t>
     </r>
@@ -922,7 +925,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备类型</t>
     </r>
@@ -944,7 +946,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备名称</t>
     </r>
@@ -969,7 +970,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备工作模式</t>
     </r>
@@ -991,7 +991,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：主机模式、</t>
     </r>
@@ -1011,7 +1010,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：从机模式</t>
     </r>
@@ -1033,7 +1031,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设备型号</t>
     </r>
@@ -1057,7 +1054,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设备地址</t>
     </r>
@@ -1081,7 +1077,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">数据中心</t>
     </r>
@@ -1103,7 +1098,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模组</t>
     </r>
@@ -1138,7 +1132,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：模块（层号）</t>
     </r>
@@ -1162,7 +1155,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：机柜</t>
     </r>
@@ -1186,7 +1178,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：系统信息</t>
     </r>
@@ -1210,7 +1201,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：系统版本</t>
     </r>
@@ -1234,7 +1224,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：系统最后更新时间</t>
     </r>
@@ -1258,7 +1247,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：系统运行时间</t>
     </r>
@@ -1285,7 +1273,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1307,7 +1294,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -1331,7 +1317,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1353,7 +1338,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">温度</t>
     </r>
@@ -1377,7 +1361,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1399,7 +1382,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使用率</t>
     </r>
@@ -1423,7 +1405,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1445,7 +1426,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">名称</t>
     </r>
@@ -1469,7 +1449,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -1491,7 +1470,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">频率</t>
     </r>
@@ -1515,7 +1493,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：内存名称</t>
     </r>
@@ -1539,7 +1516,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：内存频度</t>
     </r>
@@ -1563,7 +1539,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：内存大小</t>
     </r>
@@ -1585,7 +1560,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设备用户信息</t>
     </r>
@@ -1607,7 +1581,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户信息</t>
     </r>
@@ -1629,7 +1602,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户名、密码</t>
     </r>
@@ -1641,7 +1613,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">字符串以</t>
     </r>
@@ -1661,7 +1632,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分开 </t>
     </r>
@@ -1681,7 +1651,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分号加空格</t>
     </r>
@@ -1715,7 +1684,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户名、邮件</t>
     </r>
@@ -1728,7 +1696,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">要加</t>
     </r>
@@ -1750,7 +1717,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">号，表示第几个邮件</t>
     </r>
@@ -1774,7 +1740,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户名、手机</t>
     </r>
@@ -1798,7 +1763,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用户名、所属组</t>
     </r>
@@ -1822,7 +1786,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：删除用户</t>
     </r>
@@ -1849,7 +1812,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：删除所有用户</t>
     </r>
@@ -1873,7 +1835,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：用户组</t>
     </r>
@@ -1900,7 +1861,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位权限</t>
     </r>
@@ -1922,7 +1882,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备网络信息</t>
     </r>
@@ -1944,7 +1903,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">地址
 </t>
@@ -1965,7 +1923,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网络</t>
     </r>
@@ -1997,7 +1954,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备</t>
     </r>
@@ -2029,7 +1985,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备网关</t>
     </r>
@@ -2051,7 +2006,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：子网掩码</t>
     </r>
@@ -2073,7 +2027,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2105,7 +2058,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2137,7 +2089,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2157,7 +2108,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模式</t>
     </r>
@@ -2179,7 +2129,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">静态、</t>
     </r>
@@ -2199,7 +2148,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">动态获取</t>
     </r>
@@ -2223,7 +2171,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2245,7 +2192,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2269,7 +2215,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：是否开启</t>
     </r>
@@ -2304,7 +2249,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开启、</t>
     </r>
@@ -2326,7 +2270,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止</t>
     </r>
@@ -2353,7 +2296,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">密码</t>
     </r>
@@ -2377,7 +2319,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2399,7 +2340,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2423,7 +2363,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">端口号</t>
     </r>
@@ -2447,7 +2386,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模式端口</t>
     </r>
@@ -2471,7 +2409,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">工作模式</t>
     </r>
@@ -2495,7 +2432,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能</t>
     </r>
@@ -2517,7 +2453,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">加密、</t>
     </r>
@@ -2539,7 +2474,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止</t>
     </r>
@@ -2563,7 +2497,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2585,7 +2518,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2609,7 +2541,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：使能</t>
     </r>
@@ -2633,7 +2564,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能、</t>
     </r>
@@ -2655,7 +2585,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止</t>
     </r>
@@ -2679,7 +2608,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：用户名</t>
     </r>
@@ -2703,7 +2631,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：密码</t>
     </r>
@@ -2727,7 +2654,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：端口号</t>
     </r>
@@ -2751,7 +2677,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -2773,7 +2698,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2797,7 +2721,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2821,7 +2744,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：地址</t>
     </r>
@@ -2845,7 +2767,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：波特率</t>
     </r>
@@ -2869,7 +2790,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：数据位</t>
     </r>
@@ -2893,7 +2813,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：奇偶校验位</t>
     </r>
@@ -2917,7 +2836,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：停止位</t>
     </r>
@@ -2939,7 +2857,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -2961,7 +2878,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：使能</t>
     </r>
@@ -2983,7 +2899,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能、</t>
     </r>
@@ -3003,7 +2918,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止</t>
     </r>
@@ -3025,7 +2939,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3045,7 +2958,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">共同体</t>
     </r>
@@ -3067,7 +2979,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3087,7 +2998,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">共同体</t>
     </r>
@@ -3115,7 +3025,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务器位置</t>
     </r>
@@ -3137,7 +3046,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">节点</t>
     </r>
@@ -3159,7 +3067,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能</t>
     </r>
@@ -3181,7 +3088,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：账号</t>
     </r>
@@ -3203,7 +3109,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：密码</t>
     </r>
@@ -3225,7 +3130,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：密钥</t>
     </r>
@@ -3249,7 +3153,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3284,7 +3187,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">使能</t>
     </r>
@@ -3308,7 +3210,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、用户名</t>
     </r>
@@ -3333,7 +3234,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：用户</t>
     </r>
@@ -3355,7 +3255,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：密码</t>
     </r>
@@ -3377,7 +3276,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3397,7 +3295,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务器</t>
     </r>
@@ -3419,7 +3316,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：端口号</t>
     </r>
@@ -3441,7 +3337,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">认证方式</t>
     </r>
@@ -3463,7 +3358,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">测试接收账号</t>
     </r>
@@ -3487,7 +3381,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3522,7 +3415,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3544,7 +3436,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务器</t>
     </r>
@@ -3568,7 +3459,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：端口号</t>
     </r>
@@ -3592,7 +3482,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：时区</t>
     </r>
@@ -3616,7 +3505,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -3651,7 +3539,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">基本设置</t>
     </r>
@@ -3675,7 +3562,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">认证</t>
     </r>
@@ -3699,7 +3585,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务器无响应时启用本地认证</t>
     </r>
@@ -3723,7 +3608,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">认证服务器</t>
     </r>
@@ -3747,7 +3631,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">公钥</t>
     </r>
@@ -3771,7 +3654,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">认证端口</t>
     </r>
@@ -3795,7 +3677,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">账号端口</t>
     </r>
@@ -3819,7 +3700,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备管理信息</t>
     </r>
@@ -3843,7 +3723,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：配置信息</t>
     </r>
@@ -3867,7 +3746,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：延时开关</t>
     </r>
@@ -3891,7 +3769,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开、</t>
     </r>
@@ -3913,7 +3790,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">关</t>
     </r>
@@ -3937,7 +3813,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：延时时间</t>
     </r>
@@ -3961,7 +3836,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：蜂鸣器开关</t>
     </r>
@@ -3985,7 +3859,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：分组开关</t>
     </r>
@@ -4009,7 +3882,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -4031,7 +3903,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">常高模式</t>
     </r>
@@ -4055,7 +3926,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设备图表信息</t>
     </r>
@@ -4079,7 +3949,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：功率</t>
     </r>
@@ -4103,7 +3972,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：电流</t>
     </r>
@@ -4127,7 +3995,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：电压</t>
     </r>
@@ -4151,7 +4018,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：温度</t>
     </r>
@@ -4164,7 +4030,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">传感器号（</t>
     </r>
@@ -4186,7 +4051,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到</t>
     </r>
@@ -4208,7 +4072,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -4232,7 +4095,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：湿度</t>
     </r>
@@ -4254,7 +4116,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">输出位名称</t>
     </r>
@@ -4282,7 +4143,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">接收时注意：</t>
     </r>
@@ -4316,7 +4176,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位分组信息</t>
     </r>
@@ -4329,7 +4188,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组名称 </t>
     </r>
@@ -4351,7 +4209,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分组信息变化 </t>
     </r>
@@ -4375,7 +4232,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">输出位超限断电</t>
     </r>
@@ -4399,7 +4255,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开启、</t>
     </r>
@@ -4421,7 +4276,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止  </t>
     </r>
@@ -4443,7 +4297,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示分组变化</t>
     </r>
@@ -4467,7 +4320,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位开关控制</t>
     </r>
@@ -4491,7 +4343,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开启、</t>
     </r>
@@ -4513,7 +4364,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">禁止 </t>
     </r>
@@ -4535,7 +4385,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分组信息变化</t>
     </r>
@@ -4559,7 +4408,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位上下电时间</t>
     </r>
@@ -4572,7 +4420,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">时间，上电、下电时间 </t>
     </r>
@@ -4594,7 +4441,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分组信息变化</t>
     </r>
@@ -4618,7 +4464,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位排序</t>
     </r>
@@ -4645,7 +4490,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：超限断电组控制</t>
     </r>
@@ -4672,7 +4516,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：开关控制组控制</t>
     </r>
@@ -4696,7 +4539,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位开关全开、全断</t>
     </r>
@@ -4709,7 +4551,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组名</t>
     </r>
@@ -4731,7 +4572,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">结尾，后面是时间</t>
     </r>
@@ -4755,7 +4595,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：定时上下电组管理</t>
     </r>
@@ -4768,7 +4607,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组名与时间间隔符</t>
     </r>
@@ -4790,7 +4628,6 @@
         <color rgb="FF7F7F7F"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分号加空格</t>
     </r>
@@ -4823,7 +4660,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系统维护命令</t>
     </r>
@@ -4845,7 +4681,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：时间同步</t>
     </r>
@@ -4857,7 +4692,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -4877,7 +4711,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -4897,7 +4730,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日 时</t>
     </r>
@@ -4917,7 +4749,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分</t>
     </r>
@@ -4937,7 +4768,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">秒</t>
     </r>
@@ -4959,7 +4789,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：恢复出厂设置</t>
     </r>
@@ -4981,7 +4810,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：重启设备</t>
     </r>
@@ -5003,7 +4831,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">额定电流</t>
     </r>
@@ -5025,7 +4852,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：接插箱数量</t>
     </r>
@@ -5050,7 +4876,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -5082,7 +4907,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -5114,7 +4938,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -5146,7 +4969,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -5178,7 +5000,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输出位电流</t>
     </r>
@@ -5200,7 +5021,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：统一设置</t>
     </r>
@@ -5222,7 +5042,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">字节</t>
     </r>
@@ -5240,7 +5059,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">备注：</t>
     </r>
@@ -5260,7 +5078,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">字节表示一个数据。值扩大</t>
     </r>
@@ -5280,7 +5097,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">倍</t>
     </r>
@@ -5302,7 +5118,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：回路电流</t>
     </r>
@@ -5324,7 +5139,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输入相电压</t>
     </r>
@@ -5346,7 +5160,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设置第</t>
     </r>
@@ -5366,7 +5179,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位阈值</t>
     </r>
@@ -5388,7 +5200,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：输入相电流</t>
     </r>
@@ -5410,7 +5221,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设置第</t>
     </r>
@@ -5430,7 +5240,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位阈值</t>
     </r>
@@ -5452,7 +5261,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">字节</t>
     </r>
@@ -5480,7 +5288,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：温度</t>
     </r>
@@ -5502,7 +5309,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设置第</t>
     </r>
@@ -5522,7 +5328,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位阈值</t>
     </r>
@@ -5544,7 +5349,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：湿度</t>
     </r>
@@ -5566,7 +5370,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：设置第</t>
     </r>
@@ -5586,7 +5389,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位阈值</t>
     </r>
@@ -5608,7 +5410,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：开关</t>
     </r>
@@ -5630,7 +5431,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">个字节</t>
     </r>
@@ -5652,7 +5452,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为关，</t>
     </r>
@@ -5672,7 +5471,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为开</t>
     </r>
@@ -5687,13 +5485,12 @@
     <numFmt numFmtId="165" formatCode="H:MM"/>
     <numFmt numFmtId="166" formatCode="YYYY\-M\-D\ H:MM"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5715,7 +5512,6 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5723,12 +5519,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -5744,7 +5534,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -5759,7 +5548,6 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5859,11 +5647,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5936,16 +5724,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -5956,39 +5744,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5996,11 +5784,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6020,6 +5808,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6032,7 +5824,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6064,8 +5856,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6146,22 +5950,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.3953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="6.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="8.61395348837209"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.2418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6274,12 +6078,12 @@
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="5"/>
@@ -6290,12 +6094,12 @@
       <c r="G8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="5"/>
@@ -6306,12 +6110,12 @@
       <c r="G9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5"/>
@@ -6322,12 +6126,12 @@
       <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5"/>
@@ -6336,14 +6140,14 @@
         <v>1</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="5"/>
@@ -6354,12 +6158,12 @@
       <c r="G12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="5"/>
@@ -6370,12 +6174,12 @@
       <c r="G13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="5"/>
@@ -6384,26 +6188,26 @@
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="n">
@@ -6412,14 +6216,14 @@
       <c r="G16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="n">
@@ -6428,14 +6232,14 @@
       <c r="G17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="n">
@@ -6444,76 +6248,78 @@
       <c r="G18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
+      <c r="G22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16"/>
+      <c r="B23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="C23" s="19"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="n">
@@ -6522,13 +6328,17 @@
       <c r="G23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="20" t="s">
-        <v>19</v>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -6538,13 +6348,13 @@
       <c r="G24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="20" t="s">
-        <v>20</v>
+      <c r="C25" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6554,44 +6364,44 @@
       <c r="G25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="20" t="s">
-        <v>21</v>
+      <c r="C26" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="20" t="s">
-        <v>22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
-      <c r="C27" s="20" t="s">
-        <v>37</v>
+      <c r="C27" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="5"/>
@@ -6602,44 +6412,44 @@
       <c r="G28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="20" t="s">
-        <v>25</v>
+      <c r="C29" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="20" t="s">
-        <v>22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
-      <c r="B30" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="n">
+      <c r="B30" s="22"/>
+      <c r="C30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26" t="s">
-        <v>40</v>
+      <c r="G30" s="5"/>
+      <c r="H30" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21"/>
       <c r="B31" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="25"/>
@@ -6648,14 +6458,14 @@
         <v>1</v>
       </c>
       <c r="G31" s="25"/>
-      <c r="H31" s="23" t="s">
-        <v>42</v>
+      <c r="H31" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21"/>
       <c r="B32" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -6664,207 +6474,209 @@
         <v>1</v>
       </c>
       <c r="G32" s="25"/>
-      <c r="H32" s="23"/>
+      <c r="H32" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="B34" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="10" t="s">
+      <c r="C34" s="19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="17" t="s">
-        <v>49</v>
+      <c r="H34" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="5"/>
+      <c r="C35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="10" t="s">
-        <v>47</v>
+      <c r="H35" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21"/>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="27" t="s">
-        <v>47</v>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="27" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
-      <c r="B42" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="G42" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="23"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="27" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="D43" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="25"/>
       <c r="F43" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="G44" s="25"/>
-      <c r="H44" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21"/>
       <c r="B45" s="23"/>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="23"/>
+      <c r="H45" s="27" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21"/>
@@ -6874,11 +6686,11 @@
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
-      <c r="F46" s="25"/>
+      <c r="F46" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G46" s="25"/>
-      <c r="H46" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21"/>
@@ -6888,11 +6700,11 @@
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
-      <c r="F47" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="23"/>
+      <c r="H47" s="27" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21"/>
@@ -6909,48 +6721,50 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="B50" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="10" t="s">
+      <c r="C50" s="19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="26" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21"/>
       <c r="B51" s="17"/>
       <c r="C51" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="23"/>
+      <c r="H51" s="27" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21"/>
@@ -6974,40 +6788,38 @@
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="H53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21"/>
       <c r="B54" s="17"/>
       <c r="C54" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="23"/>
+      <c r="H54" s="27" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21"/>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="17"/>
+      <c r="C55" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="24"/>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="27" t="s">
-        <v>80</v>
-      </c>
+      <c r="H55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21"/>
       <c r="B56" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="25"/>
@@ -7015,29 +6827,31 @@
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21"/>
+      <c r="B57" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="B58" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="17"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D58" s="5"/>
@@ -7049,7 +6863,7 @@
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21"/>
       <c r="B59" s="32"/>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D59" s="5"/>
@@ -7061,7 +6875,7 @@
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21"/>
       <c r="B60" s="32"/>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>87</v>
       </c>
       <c r="D60" s="5"/>
@@ -7073,7 +6887,7 @@
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21"/>
       <c r="B61" s="32"/>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="5"/>
@@ -7085,48 +6899,48 @@
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21"/>
       <c r="B62" s="32"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21"/>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="32"/>
+      <c r="C63" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="23" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="C64" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="D64" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
-      <c r="H64" s="23"/>
+      <c r="H64" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21"/>
@@ -7142,25 +6956,21 @@
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21"/>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D66" s="25"/>
       <c r="E66" s="25"/>
-      <c r="F66" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="23"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21"/>
-      <c r="B67" s="23"/>
+      <c r="B67" s="23" t="s">
+        <v>97</v>
+      </c>
       <c r="C67" s="26" t="s">
         <v>98</v>
       </c>
@@ -7181,22 +6991,20 @@
         <v>99</v>
       </c>
       <c r="D68" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
+      <c r="F68" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G68" s="25"/>
-      <c r="H68" s="23" t="s">
-        <v>100</v>
-      </c>
+      <c r="H68" s="23"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21"/>
-      <c r="B69" s="23" t="s">
-        <v>101</v>
-      </c>
+      <c r="B69" s="23"/>
       <c r="C69" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D69" s="25" t="n">
         <v>1</v>
@@ -7205,20 +7013,26 @@
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21"/>
-      <c r="B70" s="23"/>
+      <c r="B70" s="23" t="s">
+        <v>102</v>
+      </c>
       <c r="C70" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="D70" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
-      <c r="H70" s="23"/>
+      <c r="H70" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21"/>
@@ -7238,45 +7052,45 @@
       <c r="C72" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D72" s="25"/>
       <c r="E72" s="25"/>
-      <c r="F72" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F72" s="25"/>
       <c r="G72" s="25"/>
       <c r="H72" s="23"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21"/>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="23"/>
+      <c r="C73" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="26" t="s">
-        <v>102</v>
-      </c>
       <c r="D73" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
+      <c r="F73" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G73" s="25"/>
-      <c r="H73" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21"/>
-      <c r="B74" s="23"/>
+      <c r="B74" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="C74" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="D74" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
-      <c r="H74" s="23"/>
+      <c r="H74" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21"/>
@@ -7296,45 +7110,41 @@
       <c r="C76" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D76" s="25"/>
       <c r="E76" s="25"/>
-      <c r="F76" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="23"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21"/>
-      <c r="B77" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="B77" s="23"/>
       <c r="C77" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D77" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
+      <c r="F77" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G77" s="25"/>
       <c r="H77" s="23"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21"/>
-      <c r="B78" s="23"/>
+      <c r="B78" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="C78" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D78" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="25"/>
-      <c r="F78" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="23"/>
     </row>
@@ -7345,10 +7155,12 @@
         <v>111</v>
       </c>
       <c r="D79" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
+      <c r="F79" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G79" s="25"/>
       <c r="H79" s="23"/>
     </row>
@@ -7382,38 +7194,40 @@
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21"/>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="23"/>
+      <c r="C82" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" s="5" t="n">
+      <c r="D82" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="17" t="s">
-        <v>116</v>
-      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="23"/>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="5"/>
+      <c r="B83" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="17"/>
+      <c r="H83" s="17" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21"/>
       <c r="B84" s="17"/>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D84" s="5"/>
@@ -7425,7 +7239,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21"/>
       <c r="B85" s="17"/>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D85" s="5"/>
@@ -7437,7 +7251,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21"/>
       <c r="B86" s="17"/>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D86" s="5"/>
@@ -7449,7 +7263,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21"/>
       <c r="B87" s="17"/>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D87" s="5"/>
@@ -7461,7 +7275,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21"/>
       <c r="B88" s="17"/>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="19" t="s">
         <v>122</v>
       </c>
       <c r="D88" s="5"/>
@@ -7473,35 +7287,35 @@
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21"/>
       <c r="B89" s="17"/>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="17" t="s">
-        <v>116</v>
-      </c>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21"/>
       <c r="B90" s="17"/>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="5"/>
+      <c r="D90" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="17"/>
+      <c r="H90" s="17" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21"/>
       <c r="B91" s="17"/>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="19" t="s">
         <v>125</v>
       </c>
       <c r="D91" s="5"/>
@@ -7513,7 +7327,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21"/>
       <c r="B92" s="17"/>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D92" s="5"/>
@@ -7524,27 +7338,27 @@
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21"/>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="17"/>
+      <c r="C93" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="23"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21"/>
-      <c r="B94" s="23"/>
+      <c r="B94" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="C94" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D94" s="25"/>
+      <c r="D94" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
@@ -7553,11 +7367,11 @@
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21"/>
       <c r="B95" s="23"/>
-      <c r="C95" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
+      <c r="C95" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
       <c r="H95" s="23"/>
@@ -7565,37 +7379,37 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21"/>
       <c r="B96" s="23"/>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="25"/>
       <c r="G96" s="25"/>
       <c r="H96" s="23"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21"/>
-      <c r="B97" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="17"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" s="25"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="20" t="s">
+      <c r="B98" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D98" s="5"/>
@@ -7607,7 +7421,7 @@
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21"/>
       <c r="B99" s="17"/>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D99" s="5"/>
@@ -7619,35 +7433,35 @@
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21"/>
       <c r="B100" s="17"/>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D100" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="17"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21"/>
       <c r="B101" s="17"/>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D101" s="5"/>
+      <c r="D101" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="F101" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="G101" s="5"/>
       <c r="H101" s="17"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21"/>
       <c r="B102" s="17"/>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D102" s="5"/>
@@ -7658,23 +7472,23 @@
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21"/>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="17"/>
+      <c r="C103" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C103" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="23"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21"/>
-      <c r="B104" s="33"/>
+      <c r="B104" s="33" t="s">
+        <v>138</v>
+      </c>
       <c r="C104" s="26" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
@@ -7688,13 +7502,9 @@
       <c r="C105" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D105" s="25"/>
       <c r="E105" s="25"/>
-      <c r="F105" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F105" s="25"/>
       <c r="G105" s="25"/>
       <c r="H105" s="23"/>
     </row>
@@ -7704,33 +7514,33 @@
       <c r="C106" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D106" s="25"/>
+      <c r="D106" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
+      <c r="F106" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G106" s="25"/>
       <c r="H106" s="23"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21"/>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="33"/>
+      <c r="C107" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C107" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D107" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D107" s="25"/>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
-      <c r="H107" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="H107" s="23"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21"/>
-      <c r="B108" s="23"/>
+      <c r="B108" s="23" t="s">
+        <v>142</v>
+      </c>
       <c r="C108" s="26" t="s">
         <v>143</v>
       </c>
@@ -7741,7 +7551,7 @@
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
       <c r="H108" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7750,12 +7560,14 @@
       <c r="C109" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="25"/>
+      <c r="D109" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
       <c r="H109" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7768,7 +7580,9 @@
       <c r="E110" s="25"/>
       <c r="F110" s="25"/>
       <c r="G110" s="25"/>
-      <c r="H110" s="23"/>
+      <c r="H110" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21"/>
@@ -7788,13 +7602,9 @@
       <c r="C112" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D112" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D112" s="25"/>
       <c r="E112" s="25"/>
-      <c r="F112" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="F112" s="25"/>
       <c r="G112" s="25"/>
       <c r="H112" s="23"/>
     </row>
@@ -7815,40 +7625,40 @@
       <c r="H113" s="23"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="21"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="D114" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" s="25"/>
+      <c r="H114" s="23"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="B115" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D114" s="25" t="n">
+      <c r="C115" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="34"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="26" t="s">
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D115" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G115" s="25"/>
-      <c r="H115" s="23"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="34"/>
@@ -7857,14 +7667,14 @@
         <v>154</v>
       </c>
       <c r="D116" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
+      <c r="F116" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="G116" s="25"/>
-      <c r="H116" s="23" t="s">
-        <v>152</v>
-      </c>
+      <c r="H116" s="23"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="34"/>
@@ -7879,7 +7689,7 @@
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
       <c r="H117" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7895,27 +7705,29 @@
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
       <c r="H118" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="34"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="D119" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C119" s="24"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G119" s="25"/>
-      <c r="H119" s="23"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="34"/>
       <c r="B120" s="23" t="s">
         <v>159</v>
       </c>
@@ -7947,9 +7759,7 @@
       <c r="B122" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C122" s="24" t="s">
-        <v>162</v>
-      </c>
+      <c r="C122" s="24"/>
       <c r="D122" s="25"/>
       <c r="E122" s="25"/>
       <c r="F122" s="25" t="n">
@@ -7961,10 +7771,10 @@
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="34"/>
       <c r="B123" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>162</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
@@ -7975,78 +7785,74 @@
       <c r="H123" s="23"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="14"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="17"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" s="25"/>
+      <c r="H124" s="23"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C125" s="5"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="36"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="0"/>
-      <c r="H125" s="37" t="s">
+      <c r="G125" s="5"/>
+      <c r="H125" s="17"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I125" s="38" t="s">
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="0"/>
+      <c r="H126" s="37" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="33" t="s">
+      <c r="I126" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B126" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="24" t="s">
+    </row>
+    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="33" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="23" t="s">
+      <c r="B127" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="39"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="B127" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" s="25"/>
-      <c r="H127" s="26" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C128" s="25"/>
+        <v>171</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" s="39"/>
       <c r="D128" s="25" t="n">
         <v>1</v>
       </c>
@@ -8056,65 +7862,69 @@
       </c>
       <c r="G128" s="25"/>
       <c r="H128" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" s="39"/>
+      <c r="D129" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="25"/>
+      <c r="H129" s="26" t="s">
         <v>174</v>
-      </c>
-      <c r="B129" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25" t="n">
-        <v>1</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B130" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="39"/>
+      <c r="D130" s="25"/>
       <c r="E130" s="25"/>
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
       <c r="H130" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B131" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C131" s="30"/>
-      <c r="D131" s="25"/>
+      <c r="B131" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="39"/>
+      <c r="D131" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
       <c r="G131" s="25"/>
       <c r="H131" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="33" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="B132" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C132" s="30"/>
       <c r="D132" s="25"/>
@@ -8122,7 +7932,7 @@
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
       <c r="H132" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8130,7 +7940,7 @@
         <v>181</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C133" s="30"/>
       <c r="D133" s="25"/>
@@ -8138,66 +7948,66 @@
       <c r="F133" s="25"/>
       <c r="G133" s="25"/>
       <c r="H133" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B134" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C134" s="34"/>
+        <v>182</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134" s="30"/>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
       <c r="H134" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="39"/>
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
-      <c r="F135" s="39"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="39"/>
+      <c r="B135" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="34"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="24" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B136" s="17" t="s">
+      <c r="A136" s="40"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="40"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C136" s="17"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="40" t="s">
+      <c r="B137" s="17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="17"/>
-      <c r="B137" s="17" t="s">
-        <v>188</v>
-      </c>
       <c r="C137" s="17"/>
-      <c r="D137" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E137" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
-      <c r="H137" s="20"/>
+      <c r="H137" s="41" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
@@ -8213,19 +8023,32 @@
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="20"/>
+      <c r="H138" s="19"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="41" t="s">
+      <c r="A139" s="17"/>
+      <c r="B139" s="17" t="s">
         <v>190</v>
       </c>
+      <c r="C139" s="17"/>
+      <c r="D139" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="19"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="41" t="s">
+      <c r="A141" s="42" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="42" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -8239,34 +8062,33 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A7:A22"/>
+    <mergeCell ref="A7:A23"/>
     <mergeCell ref="B8:B15"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A57:A113"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="A58:A114"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="A120:A124"/>
     <mergeCell ref="B126:C126"/>
     <mergeCell ref="B127:C127"/>
     <mergeCell ref="B128:C128"/>
@@ -8276,11 +8098,12 @@
     <mergeCell ref="B132:C132"/>
     <mergeCell ref="B133:C133"/>
     <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="A136:H136"/>
+    <mergeCell ref="A137:A139"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8305,27 +8128,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" s="43" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" s="44" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -8344,97 +8167,97 @@
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="45" t="s">
         <v>198</v>
       </c>
+      <c r="B4" s="46" t="s">
+        <v>199</v>
+      </c>
       <c r="C4" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="46"/>
+      <c r="F4" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="47"/>
+        <v>204</v>
+      </c>
+      <c r="B5" s="48"/>
       <c r="C5" s="21"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="49" t="s">
         <v>205</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>206</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
+      <c r="B7" s="51" t="s">
+        <v>208</v>
+      </c>
       <c r="C7" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="52" t="s">
         <v>212</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>213</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -8443,11 +8266,11 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="49" t="s">
         <v>214</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>215</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -8456,15 +8279,15 @@
       <c r="G9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="14"/>
+      <c r="A10" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="54"/>
       <c r="C10" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
